--- a/projects/alignment-opti/plots_pub/max-mult-codons_params.xlsx
+++ b/projects/alignment-opti/plots_pub/max-mult-codons_params.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>99.25659210505113</v>
+        <v>99.25498067175282</v>
       </c>
       <c r="D2">
-        <v>3.907229456830166</v>
+        <v>3.90747328392995</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>98.7977187983016</v>
+        <v>98.80281835500443</v>
       </c>
       <c r="D3">
-        <v>4.984644198899101</v>
+        <v>4.984632702542947</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>99.30707431077008</v>
+        <v>99.30510322657524</v>
       </c>
       <c r="D4">
-        <v>3.939000525981976</v>
+        <v>3.938176493462086</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>99.10700554531</v>
+        <v>99.10840362942636</v>
       </c>
       <c r="D5">
-        <v>5.205927426852962</v>
+        <v>5.204058601444517</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>98.65988781393334</v>
+        <v>98.65925812114786</v>
       </c>
       <c r="D6">
-        <v>5.220979911845463</v>
+        <v>5.219481434581921</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>99.27967168399977</v>
+        <v>99.27990695726577</v>
       </c>
       <c r="D7">
-        <v>3.596492059580008</v>
+        <v>3.596483536622455</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -612,10 +612,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>99.05900685620691</v>
+        <v>99.0573926181972</v>
       </c>
       <c r="D8">
-        <v>4.595719439818271</v>
+        <v>4.594382012706524</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -638,10 +638,10 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>98.80820221910945</v>
+        <v>98.80897718312204</v>
       </c>
       <c r="D9">
-        <v>4.306654000037255</v>
+        <v>4.307894718782444</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>98.78325778725022</v>
+        <v>98.77900519316783</v>
       </c>
       <c r="D10">
-        <v>3.609341288250965</v>
+        <v>3.609074601667194</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>

--- a/projects/alignment-opti/plots_pub/max-mult-codons_params.xlsx
+++ b/projects/alignment-opti/plots_pub/max-mult-codons_params.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>sample_name_unique_simple</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
   </si>
 </sst>
 </file>
@@ -419,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,22 +453,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>99.25498067175282</v>
+        <v>99.27232944997668</v>
       </c>
       <c r="D2">
-        <v>3.90747328392995</v>
+        <v>4.437436252154237</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.84</v>
+        <v>0.65</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,22 +479,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>98.80281835500443</v>
+        <v>99.31815534589504</v>
       </c>
       <c r="D3">
-        <v>4.984632702542947</v>
+        <v>4.455650981524249</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0.95</v>
       </c>
       <c r="G3">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,22 +505,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>99.30510322657524</v>
+        <v>98.68006956679432</v>
       </c>
       <c r="D4">
-        <v>3.938176493462086</v>
+        <v>5.908935444679265</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0.95</v>
       </c>
       <c r="G4">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,22 +531,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>99.10840362942636</v>
+        <v>99.29166895405103</v>
       </c>
       <c r="D5">
-        <v>5.204058601444517</v>
+        <v>4.058438737581729</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0.95</v>
       </c>
       <c r="G5">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,22 +557,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>98.65925812114786</v>
+        <v>98.82383710792956</v>
       </c>
       <c r="D6">
-        <v>5.219481434581921</v>
+        <v>4.85395972154425</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0.95</v>
       </c>
       <c r="G6">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,22 +583,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>99.27990695726577</v>
+        <v>98.79549216381972</v>
       </c>
       <c r="D7">
-        <v>3.596483536622455</v>
+        <v>4.074358541525996</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0.95</v>
       </c>
       <c r="G7">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,22 +609,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>99.0573926181972</v>
+        <v>99.09193504566448</v>
       </c>
       <c r="D8">
-        <v>4.594382012706524</v>
+        <v>6.721120573423139</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0.95</v>
       </c>
       <c r="G8">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,48 +635,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>98.80897718312204</v>
+        <v>98.56170310665856</v>
       </c>
       <c r="D9">
-        <v>4.307894718782444</v>
+        <v>6.21022043795814</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0.95</v>
       </c>
       <c r="G9">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="H9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>98.77900519316783</v>
-      </c>
-      <c r="D10">
-        <v>3.609074601667194</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.95</v>
-      </c>
-      <c r="G10">
-        <v>0.84</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
